--- a/Hardware/MTR_Tiny_MD/BOM.xlsx
+++ b/Hardware/MTR_Tiny_MD/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicil\Desktop\MTR_Tiny_MD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicil\Documents\MTR_Tiny_MD\Hardware\MTR_Tiny_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4732A-D48E-4472-BB37-EDA6C6D8A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D580F4-B89C-454A-81C0-E55CB3239B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F37F7CBE-2C56-4042-B779-530C56BE7398}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,6 +1159,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1197,7 +1209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1227,7 +1239,13 @@
     <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1695,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1728,7 @@
     <col min="7" max="7" width="184.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>318</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>332</v>
       </c>
@@ -1779,7 +1797,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>334</v>
       </c>
@@ -1802,7 +1820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>336</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>337</v>
       </c>
@@ -1848,421 +1866,421 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>301</v>
       </c>
@@ -2285,53 +2303,53 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>304</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>306</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>307</v>
       </c>
@@ -2400,7 +2418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>308</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>309</v>
       </c>
@@ -2446,7 +2464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>310</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>311</v>
       </c>
@@ -2492,7 +2510,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>312</v>
       </c>
@@ -2515,7 +2533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>313</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>315</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>316</v>
       </c>
@@ -2584,191 +2602,191 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>329</v>
       </c>
@@ -2791,7 +2809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>330</v>
       </c>
@@ -2814,30 +2832,30 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:7" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="35" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>333</v>
       </c>
@@ -2860,7 +2878,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A51" s="25" t="s">
         <v>335</v>
       </c>
